--- a/Ising Model Homophily Test Logs/Tables.xlsx
+++ b/Ising Model Homophily Test Logs/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayan\Documents\GitHub\gnn-residual-correlation-extension\Ising Model Homophily Test Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCB33F6-3630-483C-893B-590FE670B980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8546545-8540-4DCD-90C8-FC4C70ABBB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1185" windowWidth="17400" windowHeight="11280" xr2:uid="{343DCAAF-1C32-4E47-8DE1-157AB9A92791}"/>
+    <workbookView xWindow="11355" yWindow="2370" windowWidth="17400" windowHeight="11280" xr2:uid="{343DCAAF-1C32-4E47-8DE1-157AB9A92791}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>J</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>gnn_rr_std</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -406,357 +412,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB287B8-0835-411F-97C9-E6D71A32DA01}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1</v>
+        <v>35</v>
       </c>
       <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
         <v>0.53200000000000003</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>2.7E-2</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.34100000000000003</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.106</v>
       </c>
-      <c r="F2">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="G2">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="I2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
         <v>0.2</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>0.60299999999999998</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.63300000000000001</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F3">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.3</v>
-      </c>
-      <c r="B4">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="C4">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="E4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
         <v>0.4</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>0.83799999999999997</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>2.4E-2</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="I5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
         <v>0.5</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>0.93300000000000005</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.94799999999999995</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
         <v>0.6</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>0.96899999999999997</v>
-      </c>
-      <c r="C7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.96</v>
       </c>
       <c r="E7">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.96</v>
+      </c>
+      <c r="G7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="I7">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
         <v>0.7</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>0.98699999999999999</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.95699999999999996</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0.98</v>
+      </c>
+      <c r="I8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
         <v>0.8</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>0.996</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.59499999999999997</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.40300000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0.996</v>
+      </c>
+      <c r="I9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
         <v>0.9</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>0.996</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.6</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.995</v>
+      </c>
+      <c r="I10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
         <v>-0.1</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>0.54</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>-0.30499999999999999</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0.495</v>
+      </c>
+      <c r="I11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
         <v>-0.2</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>0.63300000000000001</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>0.03</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>-0.64100000000000001</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
         <v>-0.3</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>0.70299999999999996</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>2.7E-2</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>-0.83099999999999996</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I13">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
         <v>-0.4</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>0.80700000000000005</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>2.4E-2</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>-0.96799999999999997</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0.47</v>
+      </c>
+      <c r="I14">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
         <v>-0.5</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>0.93400000000000005</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>-0.996</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="I15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16">
         <v>-0.6</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>0.97599999999999998</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>-0.998</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17">
         <v>-0.7</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>0.98299999999999998</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>-0.999</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0.436</v>
+      </c>
+      <c r="I17">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
         <v>-0.8</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>0.98899999999999999</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>0.01</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>-0.999</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="I18">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
         <v>-0.9</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>0.99199999999999999</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>-0.999</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.441</v>
+      </c>
+      <c r="I19">
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Ising Model Homophily Test Logs/Tables.xlsx
+++ b/Ising Model Homophily Test Logs/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayan\Documents\GitHub\gnn-residual-correlation-extension\Ising Model Homophily Test Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8546545-8540-4DCD-90C8-FC4C70ABBB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3BDF5-1769-4C7D-8987-CC848540314C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11355" yWindow="2370" windowWidth="17400" windowHeight="11280" xr2:uid="{343DCAAF-1C32-4E47-8DE1-157AB9A92791}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB287B8-0835-411F-97C9-E6D71A32DA01}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,25 +722,25 @@
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.54</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="E11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.128</v>
+      </c>
+      <c r="H11">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="I11">
         <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F11">
-        <v>-0.30499999999999999</v>
-      </c>
-      <c r="G11">
-        <v>0.104</v>
-      </c>
-      <c r="H11">
-        <v>0.495</v>
-      </c>
-      <c r="I11">
-        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -751,25 +751,25 @@
         <v>0.1</v>
       </c>
       <c r="C12">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="D12">
-        <v>0.63300000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F12">
-        <v>-0.64100000000000001</v>
+        <v>-0.30499999999999999</v>
       </c>
       <c r="G12">
-        <v>6.8000000000000005E-2</v>
+        <v>0.104</v>
       </c>
       <c r="H12">
-        <v>0.48899999999999999</v>
+        <v>0.495</v>
       </c>
       <c r="I12">
-        <v>3.2000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,25 +780,25 @@
         <v>0.1</v>
       </c>
       <c r="C13">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="D13">
-        <v>0.70299999999999996</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E13">
-        <v>2.7E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>-0.83099999999999996</v>
+        <v>-0.64100000000000001</v>
       </c>
       <c r="G13">
-        <v>4.7E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H13">
-        <v>0.47799999999999998</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="I13">
-        <v>1.9E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -809,25 +809,25 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="D14">
-        <v>0.80700000000000005</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="E14">
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F14">
-        <v>-0.96799999999999997</v>
+        <v>-0.83099999999999996</v>
       </c>
       <c r="G14">
-        <v>8.0000000000000002E-3</v>
+        <v>4.7E-2</v>
       </c>
       <c r="H14">
-        <v>0.47</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="I14">
-        <v>2.7E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -838,25 +838,25 @@
         <v>0.1</v>
       </c>
       <c r="C15">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="D15">
-        <v>0.93400000000000005</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="E15">
-        <v>1.7000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F15">
-        <v>-0.996</v>
+        <v>-0.96799999999999997</v>
       </c>
       <c r="G15">
-        <v>1E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H15">
-        <v>0.46500000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="I15">
-        <v>3.5000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,25 +867,25 @@
         <v>0.1</v>
       </c>
       <c r="C16">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="D16">
-        <v>0.97599999999999998</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="E16">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F16">
-        <v>-0.998</v>
+        <v>-0.996</v>
       </c>
       <c r="G16">
         <v>1E-3</v>
       </c>
       <c r="H16">
-        <v>0.44600000000000001</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I16">
-        <v>3.3000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -896,25 +896,25 @@
         <v>0.1</v>
       </c>
       <c r="C17">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="D17">
-        <v>0.98299999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E17">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F17">
-        <v>-0.999</v>
+        <v>-0.998</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H17">
-        <v>0.436</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="I17">
-        <v>2.3E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -925,13 +925,13 @@
         <v>0.1</v>
       </c>
       <c r="C18">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="D18">
-        <v>0.98899999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F18">
         <v>-0.999</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.46200000000000002</v>
+        <v>0.436</v>
       </c>
       <c r="I18">
         <v>2.3E-2</v>
@@ -954,13 +954,13 @@
         <v>0.1</v>
       </c>
       <c r="C19">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="D19">
-        <v>0.99199999999999999</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="E19">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F19">
         <v>-0.999</v>
@@ -969,9 +969,38 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="I19">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>-0.9</v>
+      </c>
+      <c r="D20">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F20">
+        <v>-0.999</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0.441</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
